--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github\kamusjsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D76D90-5BD2-4BCD-865F-4D21A8DBA62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86DF3AA-BC6E-458A-B28F-86A1E8F3EF24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10560" yWindow="3444" windowWidth="12480" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="319">
   <si>
     <t>Singkatan</t>
   </si>
@@ -979,6 +979,12 @@
   </si>
   <si>
     <t>&lt;tr&gt;&lt;td&gt;</t>
+  </si>
+  <si>
+    <t>CLM</t>
+  </si>
+  <si>
+    <t>Corona Likelihood Metric</t>
   </si>
 </sst>
 </file>
@@ -1300,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E158"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,7 +1635,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>316</v>
       </c>
@@ -1651,13 +1657,13 @@
         <v>316</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>317</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>318</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>315</v>
@@ -1668,13 +1674,13 @@
         <v>316</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>315</v>
@@ -1685,13 +1691,13 @@
         <v>316</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>315</v>
@@ -1702,13 +1708,13 @@
         <v>316</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>315</v>
@@ -1719,13 +1725,13 @@
         <v>316</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>315</v>
@@ -1736,13 +1742,13 @@
         <v>316</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>315</v>
@@ -1753,13 +1759,13 @@
         <v>316</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>315</v>
@@ -1770,13 +1776,13 @@
         <v>316</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>315</v>
@@ -1787,13 +1793,13 @@
         <v>316</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>315</v>
@@ -1804,13 +1810,13 @@
         <v>316</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>315</v>
@@ -1821,13 +1827,13 @@
         <v>316</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>315</v>
@@ -1838,13 +1844,13 @@
         <v>316</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>315</v>
@@ -1855,13 +1861,13 @@
         <v>316</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>195</v>
+        <v>299</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>315</v>
@@ -1872,13 +1878,13 @@
         <v>316</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>315</v>
@@ -1889,13 +1895,13 @@
         <v>316</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>315</v>
@@ -1905,14 +1911,14 @@
       <c r="A36" t="s">
         <v>316</v>
       </c>
-      <c r="B36" t="s">
-        <v>278</v>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>279</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>315</v>
@@ -1922,14 +1928,14 @@
       <c r="A37" t="s">
         <v>316</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>283</v>
+      <c r="B37" t="s">
+        <v>278</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D37" t="s">
-        <v>282</v>
+      <c r="D37" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>315</v>
@@ -1940,13 +1946,13 @@
         <v>316</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>280</v>
+      <c r="D38" t="s">
+        <v>282</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>315</v>
@@ -1957,13 +1963,13 @@
         <v>316</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>315</v>
@@ -1974,13 +1980,13 @@
         <v>316</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>315</v>
@@ -1991,13 +1997,13 @@
         <v>316</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>315</v>
@@ -2008,13 +2014,13 @@
         <v>316</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D42" t="s">
-        <v>284</v>
+      <c r="D42" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>315</v>
@@ -2025,13 +2031,13 @@
         <v>316</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>236</v>
+      <c r="D43" t="s">
+        <v>284</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>315</v>
@@ -2042,13 +2048,13 @@
         <v>316</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>315</v>
@@ -2059,13 +2065,13 @@
         <v>316</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>315</v>
@@ -2076,13 +2082,13 @@
         <v>316</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>166</v>
+        <v>300</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>165</v>
+        <v>301</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>315</v>
@@ -2093,13 +2099,13 @@
         <v>316</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>315</v>
@@ -2110,13 +2116,13 @@
         <v>316</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>315</v>
@@ -2126,14 +2132,14 @@
       <c r="A49" t="s">
         <v>316</v>
       </c>
-      <c r="B49" t="s">
-        <v>276</v>
+      <c r="B49" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>315</v>
@@ -2143,14 +2149,14 @@
       <c r="A50" t="s">
         <v>316</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>57</v>
+      <c r="B50" t="s">
+        <v>276</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>315</v>
@@ -2161,13 +2167,13 @@
         <v>316</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>315</v>
@@ -2178,13 +2184,13 @@
         <v>316</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>315</v>
@@ -2195,13 +2201,13 @@
         <v>316</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>315</v>
@@ -2212,13 +2218,13 @@
         <v>316</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>315</v>
@@ -2229,13 +2235,13 @@
         <v>316</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>315</v>
@@ -2246,13 +2252,13 @@
         <v>316</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>315</v>
@@ -2263,13 +2269,13 @@
         <v>316</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>315</v>
@@ -2280,13 +2286,13 @@
         <v>316</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>315</v>
@@ -2297,13 +2303,13 @@
         <v>316</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>315</v>
@@ -2314,13 +2320,13 @@
         <v>316</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>126</v>
+        <v>302</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>315</v>
@@ -2331,13 +2337,13 @@
         <v>316</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>315</v>
@@ -2348,13 +2354,13 @@
         <v>316</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>315</v>
@@ -2365,13 +2371,13 @@
         <v>316</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>315</v>
@@ -2382,13 +2388,13 @@
         <v>316</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>292</v>
+        <v>101</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>293</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>315</v>
@@ -2399,13 +2405,13 @@
         <v>316</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>145</v>
+        <v>292</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>315</v>
@@ -2416,13 +2422,13 @@
         <v>316</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>315</v>
@@ -2433,13 +2439,13 @@
         <v>316</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>315</v>
@@ -2450,13 +2456,13 @@
         <v>316</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>315</v>
@@ -2467,13 +2473,13 @@
         <v>316</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>315</v>
@@ -2484,13 +2490,13 @@
         <v>316</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>315</v>
@@ -2501,13 +2507,13 @@
         <v>316</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>315</v>
@@ -2518,13 +2524,13 @@
         <v>316</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>315</v>
@@ -2535,13 +2541,13 @@
         <v>316</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>315</v>
@@ -2552,13 +2558,13 @@
         <v>316</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>315</v>
@@ -2569,13 +2575,13 @@
         <v>316</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>315</v>
@@ -2586,13 +2592,13 @@
         <v>316</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>315</v>
@@ -2609,7 +2615,7 @@
         <v>314</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>315</v>
@@ -2620,13 +2626,13 @@
         <v>316</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>315</v>
@@ -2637,13 +2643,13 @@
         <v>316</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>315</v>
@@ -2654,13 +2660,13 @@
         <v>316</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>315</v>
@@ -2671,13 +2677,13 @@
         <v>316</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>315</v>
@@ -2688,13 +2694,13 @@
         <v>316</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>315</v>
@@ -2705,13 +2711,13 @@
         <v>316</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>315</v>
@@ -2722,13 +2728,13 @@
         <v>316</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>315</v>
@@ -2739,13 +2745,13 @@
         <v>316</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>315</v>
@@ -2756,13 +2762,13 @@
         <v>316</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>315</v>
@@ -2773,13 +2779,13 @@
         <v>316</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>315</v>
@@ -2790,13 +2796,13 @@
         <v>316</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>315</v>
@@ -2807,13 +2813,13 @@
         <v>316</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>315</v>
@@ -2824,13 +2830,13 @@
         <v>316</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>315</v>
@@ -2841,13 +2847,13 @@
         <v>316</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>315</v>
@@ -2858,13 +2864,13 @@
         <v>316</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>315</v>
@@ -2875,13 +2881,13 @@
         <v>316</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>315</v>
@@ -2892,13 +2898,13 @@
         <v>316</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>315</v>
@@ -2909,13 +2915,13 @@
         <v>316</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>315</v>
@@ -2926,13 +2932,13 @@
         <v>316</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>315</v>
@@ -2943,13 +2949,13 @@
         <v>316</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>315</v>
@@ -2960,13 +2966,13 @@
         <v>316</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>315</v>
@@ -2977,13 +2983,13 @@
         <v>316</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>315</v>
@@ -2994,13 +3000,13 @@
         <v>316</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>315</v>
@@ -3011,13 +3017,13 @@
         <v>316</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>315</v>
@@ -3028,13 +3034,13 @@
         <v>316</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>315</v>
@@ -3045,13 +3051,13 @@
         <v>316</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>315</v>
@@ -3061,14 +3067,14 @@
       <c r="A104" t="s">
         <v>316</v>
       </c>
-      <c r="B104" t="s">
-        <v>258</v>
+      <c r="B104" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>315</v>
@@ -3078,14 +3084,14 @@
       <c r="A105" t="s">
         <v>316</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>44</v>
+      <c r="B105" t="s">
+        <v>258</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>315</v>
@@ -3096,13 +3102,13 @@
         <v>316</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>315</v>
@@ -3113,13 +3119,13 @@
         <v>316</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>315</v>
@@ -3130,13 +3136,13 @@
         <v>316</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>289</v>
+        <v>163</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D108" t="s">
-        <v>288</v>
+      <c r="D108" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>315</v>
@@ -3147,13 +3153,13 @@
         <v>316</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D109" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>315</v>
@@ -3164,13 +3170,13 @@
         <v>316</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>161</v>
+        <v>286</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>162</v>
+      <c r="D110" t="s">
+        <v>287</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>315</v>
@@ -3181,13 +3187,13 @@
         <v>316</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>315</v>
@@ -3198,13 +3204,13 @@
         <v>316</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>315</v>
@@ -3215,13 +3221,13 @@
         <v>316</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>315</v>
@@ -3232,13 +3238,13 @@
         <v>316</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>315</v>
@@ -3249,13 +3255,13 @@
         <v>316</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>315</v>
@@ -3265,14 +3271,14 @@
       <c r="A116" t="s">
         <v>316</v>
       </c>
-      <c r="B116" t="s">
-        <v>272</v>
+      <c r="B116" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>273</v>
+        <v>158</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>315</v>
@@ -3283,13 +3289,13 @@
         <v>316</v>
       </c>
       <c r="B117" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>315</v>
@@ -3299,14 +3305,14 @@
       <c r="A118" t="s">
         <v>316</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>5</v>
+      <c r="B118" t="s">
+        <v>270</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>315</v>
@@ -3317,13 +3323,13 @@
         <v>316</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>306</v>
+        <v>5</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>307</v>
+        <v>6</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>315</v>
@@ -3334,13 +3340,13 @@
         <v>316</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>136</v>
+        <v>306</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>137</v>
+        <v>307</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>315</v>
@@ -3351,13 +3357,13 @@
         <v>316</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>315</v>
@@ -3368,13 +3374,13 @@
         <v>316</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>315</v>
@@ -3385,13 +3391,13 @@
         <v>316</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>315</v>
@@ -3402,13 +3408,13 @@
         <v>316</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>315</v>
@@ -3419,13 +3425,13 @@
         <v>316</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>315</v>
@@ -3436,13 +3442,13 @@
         <v>316</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>315</v>
@@ -3453,13 +3459,13 @@
         <v>316</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>315</v>
@@ -3469,14 +3475,14 @@
       <c r="A128" t="s">
         <v>316</v>
       </c>
-      <c r="B128" t="s">
-        <v>254</v>
+      <c r="B128" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>315</v>
@@ -3486,14 +3492,14 @@
       <c r="A129" t="s">
         <v>316</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>217</v>
+      <c r="B129" t="s">
+        <v>254</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>315</v>
@@ -3504,13 +3510,13 @@
         <v>316</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>52</v>
+        <v>218</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>315</v>
@@ -3521,13 +3527,13 @@
         <v>316</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>315</v>
@@ -3538,13 +3544,13 @@
         <v>316</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>315</v>
@@ -3555,13 +3561,13 @@
         <v>316</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>315</v>
@@ -3572,13 +3578,13 @@
         <v>316</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>315</v>
@@ -3589,13 +3595,13 @@
         <v>316</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>315</v>
@@ -3606,13 +3612,13 @@
         <v>316</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>315</v>
@@ -3623,13 +3629,13 @@
         <v>316</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>294</v>
+        <v>32</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>295</v>
+        <v>34</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>315</v>
@@ -3640,13 +3646,13 @@
         <v>316</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>315</v>
@@ -3657,13 +3663,13 @@
         <v>316</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>315</v>
@@ -3674,13 +3680,13 @@
         <v>316</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>315</v>
@@ -3691,13 +3697,13 @@
         <v>316</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>105</v>
+        <v>310</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>315</v>
@@ -3708,13 +3714,13 @@
         <v>316</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>315</v>
@@ -3724,14 +3730,14 @@
       <c r="A143" t="s">
         <v>316</v>
       </c>
-      <c r="B143" t="s">
-        <v>274</v>
+      <c r="B143" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>315</v>
@@ -3741,14 +3747,14 @@
       <c r="A144" t="s">
         <v>316</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>142</v>
+      <c r="B144" t="s">
+        <v>274</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>143</v>
+        <v>275</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>315</v>
@@ -3765,7 +3771,7 @@
         <v>314</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>315</v>
@@ -3776,13 +3782,13 @@
         <v>316</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>315</v>
@@ -3793,13 +3799,13 @@
         <v>316</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>296</v>
+        <v>138</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>297</v>
+        <v>139</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>315</v>
@@ -3810,13 +3816,13 @@
         <v>316</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>115</v>
+        <v>296</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>116</v>
+        <v>297</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>315</v>
@@ -3827,13 +3833,13 @@
         <v>316</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>308</v>
+        <v>115</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>309</v>
+        <v>116</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>315</v>
@@ -3844,13 +3850,13 @@
         <v>316</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>315</v>
@@ -3861,13 +3867,13 @@
         <v>316</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>315</v>
@@ -3878,13 +3884,13 @@
         <v>316</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>315</v>
@@ -3895,13 +3901,13 @@
         <v>316</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>315</v>
@@ -3912,13 +3918,13 @@
         <v>316</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>315</v>
@@ -3929,13 +3935,13 @@
         <v>316</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>315</v>
@@ -3946,13 +3952,13 @@
         <v>316</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>315</v>
@@ -3963,13 +3969,13 @@
         <v>316</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>315</v>
@@ -3980,15 +3986,32 @@
         <v>316</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="C159" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E159" s="2" t="s">
         <v>315</v>
       </c>
     </row>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github\kamusjsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86DF3AA-BC6E-458A-B28F-86A1E8F3EF24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06246F26-08A9-40CF-AA71-9CD8E21ED710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="3444" windowWidth="12480" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9780" yWindow="1800" windowWidth="12480" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="323">
   <si>
     <t>Singkatan</t>
   </si>
@@ -985,6 +985,18 @@
   </si>
   <si>
     <t>Corona Likelihood Metric</t>
+  </si>
+  <si>
+    <t>CITATA</t>
+  </si>
+  <si>
+    <t>Cipta Karya, Tata Ruang dan Pertanahan</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Peduli Lindungi</t>
   </si>
 </sst>
 </file>
@@ -1306,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1635,35 +1647,35 @@
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>316</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>315</v>
@@ -1674,13 +1686,13 @@
         <v>316</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>317</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>318</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>315</v>
@@ -1691,13 +1703,13 @@
         <v>316</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>315</v>
@@ -1708,13 +1720,13 @@
         <v>316</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>315</v>
@@ -1725,13 +1737,13 @@
         <v>316</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>315</v>
@@ -1742,13 +1754,13 @@
         <v>316</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>315</v>
@@ -1759,13 +1771,13 @@
         <v>316</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>315</v>
@@ -1776,13 +1788,13 @@
         <v>316</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>315</v>
@@ -1793,13 +1805,13 @@
         <v>316</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>315</v>
@@ -1810,13 +1822,13 @@
         <v>316</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>315</v>
@@ -1827,13 +1839,13 @@
         <v>316</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>315</v>
@@ -1844,13 +1856,13 @@
         <v>316</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>315</v>
@@ -1861,13 +1873,13 @@
         <v>316</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>315</v>
@@ -1878,13 +1890,13 @@
         <v>316</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>195</v>
+        <v>299</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>315</v>
@@ -1895,13 +1907,13 @@
         <v>316</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>315</v>
@@ -1912,13 +1924,13 @@
         <v>316</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>315</v>
@@ -1928,14 +1940,14 @@
       <c r="A37" t="s">
         <v>316</v>
       </c>
-      <c r="B37" t="s">
-        <v>278</v>
+      <c r="B37" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>279</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>315</v>
@@ -1945,14 +1957,14 @@
       <c r="A38" t="s">
         <v>316</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>283</v>
+      <c r="B38" t="s">
+        <v>278</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D38" t="s">
-        <v>282</v>
+      <c r="D38" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>315</v>
@@ -1963,13 +1975,13 @@
         <v>316</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>280</v>
+      <c r="D39" t="s">
+        <v>282</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>315</v>
@@ -1980,13 +1992,13 @@
         <v>316</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>315</v>
@@ -1997,13 +2009,13 @@
         <v>316</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>315</v>
@@ -2014,13 +2026,13 @@
         <v>316</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>315</v>
@@ -2031,13 +2043,13 @@
         <v>316</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D43" t="s">
-        <v>284</v>
+      <c r="D43" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>315</v>
@@ -2048,13 +2060,13 @@
         <v>316</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>236</v>
+      <c r="D44" t="s">
+        <v>284</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>315</v>
@@ -2065,13 +2077,13 @@
         <v>316</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>315</v>
@@ -2082,13 +2094,13 @@
         <v>316</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>315</v>
@@ -2099,13 +2111,13 @@
         <v>316</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>166</v>
+        <v>300</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>165</v>
+        <v>301</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>315</v>
@@ -2116,13 +2128,13 @@
         <v>316</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>315</v>
@@ -2133,13 +2145,13 @@
         <v>316</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>315</v>
@@ -2149,14 +2161,14 @@
       <c r="A50" t="s">
         <v>316</v>
       </c>
-      <c r="B50" t="s">
-        <v>276</v>
+      <c r="B50" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>315</v>
@@ -2166,14 +2178,14 @@
       <c r="A51" t="s">
         <v>316</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>57</v>
+      <c r="B51" t="s">
+        <v>276</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>315</v>
@@ -2184,13 +2196,13 @@
         <v>316</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>315</v>
@@ -2201,13 +2213,13 @@
         <v>316</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>315</v>
@@ -2218,13 +2230,13 @@
         <v>316</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>315</v>
@@ -2235,13 +2247,13 @@
         <v>316</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>315</v>
@@ -2252,13 +2264,13 @@
         <v>316</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>315</v>
@@ -2269,13 +2281,13 @@
         <v>316</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>315</v>
@@ -2286,13 +2298,13 @@
         <v>316</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>315</v>
@@ -2303,13 +2315,13 @@
         <v>316</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>315</v>
@@ -2320,13 +2332,13 @@
         <v>316</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>315</v>
@@ -2337,13 +2349,13 @@
         <v>316</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>126</v>
+        <v>302</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>315</v>
@@ -2354,13 +2366,13 @@
         <v>316</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>315</v>
@@ -2371,13 +2383,13 @@
         <v>316</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>315</v>
@@ -2388,13 +2400,13 @@
         <v>316</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>315</v>
@@ -2405,13 +2417,13 @@
         <v>316</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>292</v>
+        <v>101</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>293</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>315</v>
@@ -2422,13 +2434,13 @@
         <v>316</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>145</v>
+        <v>292</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>315</v>
@@ -2439,13 +2451,13 @@
         <v>316</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>315</v>
@@ -2456,13 +2468,13 @@
         <v>316</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>315</v>
@@ -2473,13 +2485,13 @@
         <v>316</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>315</v>
@@ -2490,13 +2502,13 @@
         <v>316</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>315</v>
@@ -2507,13 +2519,13 @@
         <v>316</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>315</v>
@@ -2524,13 +2536,13 @@
         <v>316</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>315</v>
@@ -2541,13 +2553,13 @@
         <v>316</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>315</v>
@@ -2558,13 +2570,13 @@
         <v>316</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>315</v>
@@ -2575,13 +2587,13 @@
         <v>316</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>315</v>
@@ -2592,13 +2604,13 @@
         <v>316</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>315</v>
@@ -2609,13 +2621,13 @@
         <v>316</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>315</v>
@@ -2632,7 +2644,7 @@
         <v>314</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>315</v>
@@ -2643,13 +2655,13 @@
         <v>316</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>315</v>
@@ -2660,13 +2672,13 @@
         <v>316</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>315</v>
@@ -2677,13 +2689,13 @@
         <v>316</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>315</v>
@@ -2694,13 +2706,13 @@
         <v>316</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>315</v>
@@ -2711,13 +2723,13 @@
         <v>316</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>315</v>
@@ -2728,13 +2740,13 @@
         <v>316</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>315</v>
@@ -2745,13 +2757,13 @@
         <v>316</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>315</v>
@@ -2762,13 +2774,13 @@
         <v>316</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>315</v>
@@ -2779,13 +2791,13 @@
         <v>316</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>315</v>
@@ -2796,13 +2808,13 @@
         <v>316</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>315</v>
@@ -2813,13 +2825,13 @@
         <v>316</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>315</v>
@@ -2830,13 +2842,13 @@
         <v>316</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>315</v>
@@ -2847,13 +2859,13 @@
         <v>316</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>315</v>
@@ -2864,13 +2876,13 @@
         <v>316</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>315</v>
@@ -2881,13 +2893,13 @@
         <v>316</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>315</v>
@@ -2898,13 +2910,13 @@
         <v>316</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>315</v>
@@ -2915,13 +2927,13 @@
         <v>316</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>315</v>
@@ -2932,13 +2944,13 @@
         <v>316</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>315</v>
@@ -2949,13 +2961,13 @@
         <v>316</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>315</v>
@@ -2966,13 +2978,13 @@
         <v>316</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>315</v>
@@ -2983,13 +2995,13 @@
         <v>316</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>201</v>
+        <v>321</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>315</v>
@@ -3000,13 +3012,13 @@
         <v>316</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>315</v>
@@ -3017,13 +3029,13 @@
         <v>316</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>315</v>
@@ -3034,13 +3046,13 @@
         <v>316</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>315</v>
@@ -3051,13 +3063,13 @@
         <v>316</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>315</v>
@@ -3068,13 +3080,13 @@
         <v>316</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>315</v>
@@ -3084,14 +3096,14 @@
       <c r="A105" t="s">
         <v>316</v>
       </c>
-      <c r="B105" t="s">
-        <v>258</v>
+      <c r="B105" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>259</v>
+        <v>179</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>315</v>
@@ -3102,13 +3114,13 @@
         <v>316</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>315</v>
@@ -3118,14 +3130,14 @@
       <c r="A107" t="s">
         <v>316</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>149</v>
+      <c r="B107" t="s">
+        <v>258</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>315</v>
@@ -3136,13 +3148,13 @@
         <v>316</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>315</v>
@@ -3153,13 +3165,13 @@
         <v>316</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>289</v>
+        <v>149</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D109" t="s">
-        <v>288</v>
+      <c r="D109" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>315</v>
@@ -3170,13 +3182,13 @@
         <v>316</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>286</v>
+        <v>163</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D110" t="s">
-        <v>287</v>
+      <c r="D110" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>315</v>
@@ -3187,13 +3199,13 @@
         <v>316</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>161</v>
+        <v>289</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>162</v>
+      <c r="D111" t="s">
+        <v>288</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>315</v>
@@ -3204,13 +3216,13 @@
         <v>316</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>156</v>
+      <c r="D112" t="s">
+        <v>287</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>315</v>
@@ -3221,13 +3233,13 @@
         <v>316</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>315</v>
@@ -3238,13 +3250,13 @@
         <v>316</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>315</v>
@@ -3255,13 +3267,13 @@
         <v>316</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>315</v>
@@ -3272,13 +3284,13 @@
         <v>316</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>315</v>
@@ -3288,14 +3300,14 @@
       <c r="A117" t="s">
         <v>316</v>
       </c>
-      <c r="B117" t="s">
-        <v>272</v>
+      <c r="B117" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>273</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>315</v>
@@ -3305,14 +3317,14 @@
       <c r="A118" t="s">
         <v>316</v>
       </c>
-      <c r="B118" t="s">
-        <v>270</v>
+      <c r="B118" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>271</v>
+        <v>158</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>315</v>
@@ -3322,14 +3334,14 @@
       <c r="A119" t="s">
         <v>316</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>5</v>
+      <c r="B119" t="s">
+        <v>272</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>315</v>
@@ -3339,14 +3351,14 @@
       <c r="A120" t="s">
         <v>316</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>306</v>
+      <c r="B120" t="s">
+        <v>270</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>315</v>
@@ -3357,13 +3369,13 @@
         <v>316</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>315</v>
@@ -3374,13 +3386,13 @@
         <v>316</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>29</v>
+        <v>306</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>31</v>
+        <v>307</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>315</v>
@@ -3391,13 +3403,13 @@
         <v>316</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>315</v>
@@ -3408,13 +3420,13 @@
         <v>316</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>315</v>
@@ -3425,13 +3437,13 @@
         <v>316</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>315</v>
@@ -3442,13 +3454,13 @@
         <v>316</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>315</v>
@@ -3459,13 +3471,13 @@
         <v>316</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>315</v>
@@ -3476,13 +3488,13 @@
         <v>316</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>315</v>
@@ -3492,14 +3504,14 @@
       <c r="A129" t="s">
         <v>316</v>
       </c>
-      <c r="B129" t="s">
-        <v>254</v>
+      <c r="B129" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>315</v>
@@ -3510,13 +3522,13 @@
         <v>316</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>315</v>
@@ -3526,14 +3538,14 @@
       <c r="A131" t="s">
         <v>316</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>51</v>
+      <c r="B131" t="s">
+        <v>254</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>315</v>
@@ -3544,13 +3556,13 @@
         <v>316</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>315</v>
@@ -3561,13 +3573,13 @@
         <v>316</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>315</v>
@@ -3578,13 +3590,13 @@
         <v>316</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>315</v>
@@ -3595,13 +3607,13 @@
         <v>316</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>315</v>
@@ -3612,13 +3624,13 @@
         <v>316</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>315</v>
@@ -3629,13 +3641,13 @@
         <v>316</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>315</v>
@@ -3646,13 +3658,13 @@
         <v>316</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>315</v>
@@ -3663,13 +3675,13 @@
         <v>316</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>315</v>
@@ -3680,13 +3692,13 @@
         <v>316</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>315</v>
@@ -3697,13 +3709,13 @@
         <v>316</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>315</v>
@@ -3714,13 +3726,13 @@
         <v>316</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>106</v>
+        <v>305</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>315</v>
@@ -3731,13 +3743,13 @@
         <v>316</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>39</v>
+        <v>310</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>40</v>
+        <v>311</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>315</v>
@@ -3747,14 +3759,14 @@
       <c r="A144" t="s">
         <v>316</v>
       </c>
-      <c r="B144" t="s">
-        <v>274</v>
+      <c r="B144" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>315</v>
@@ -3765,13 +3777,13 @@
         <v>316</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>315</v>
@@ -3781,14 +3793,14 @@
       <c r="A146" t="s">
         <v>316</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>142</v>
+      <c r="B146" t="s">
+        <v>274</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>315</v>
@@ -3799,13 +3811,13 @@
         <v>316</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>315</v>
@@ -3816,13 +3828,13 @@
         <v>316</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>297</v>
+        <v>200</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>315</v>
@@ -3833,13 +3845,13 @@
         <v>316</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>315</v>
@@ -3850,13 +3862,13 @@
         <v>316</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>315</v>
@@ -3867,13 +3879,13 @@
         <v>316</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>315</v>
@@ -3884,13 +3896,13 @@
         <v>316</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>131</v>
+        <v>308</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>315</v>
@@ -3901,13 +3913,13 @@
         <v>316</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>315</v>
@@ -3918,13 +3930,13 @@
         <v>316</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>315</v>
@@ -3935,13 +3947,13 @@
         <v>316</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>315</v>
@@ -3952,13 +3964,13 @@
         <v>316</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>315</v>
@@ -3969,13 +3981,13 @@
         <v>316</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>315</v>
@@ -3986,13 +3998,13 @@
         <v>316</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>315</v>
@@ -4003,15 +4015,49 @@
         <v>316</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>316</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D159" s="2" t="s">
+      <c r="C161" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E161" s="2" t="s">
         <v>315</v>
       </c>
     </row>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github\kamusjsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06246F26-08A9-40CF-AA71-9CD8E21ED710}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5012EA4-C401-4694-AD6B-79944A87CAA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="1800" windowWidth="12480" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="325">
   <si>
     <t>Singkatan</t>
   </si>
@@ -997,6 +997,12 @@
   </si>
   <si>
     <t>Peduli Lindungi</t>
+  </si>
+  <si>
+    <t>BIMTEK</t>
+  </si>
+  <si>
+    <t>Bimbingan Teknis</t>
   </si>
 </sst>
 </file>
@@ -1318,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1482,13 +1488,13 @@
         <v>316</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>182</v>
+        <v>323</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>183</v>
+        <v>324</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>315</v>
@@ -1498,14 +1504,14 @@
       <c r="A11" t="s">
         <v>316</v>
       </c>
-      <c r="B11" t="s">
-        <v>266</v>
+      <c r="B11" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>315</v>
@@ -1515,14 +1521,14 @@
       <c r="A12" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
+      <c r="B12" t="s">
+        <v>266</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>315</v>
@@ -1533,13 +1539,13 @@
         <v>316</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>315</v>
@@ -1549,14 +1555,14 @@
       <c r="A14" t="s">
         <v>316</v>
       </c>
-      <c r="B14" t="s">
-        <v>265</v>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>315</v>
@@ -1567,13 +1573,13 @@
         <v>316</v>
       </c>
       <c r="B15" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>315</v>
@@ -1584,13 +1590,13 @@
         <v>316</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>262</v>
+      <c r="D16" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>315</v>
@@ -1601,13 +1607,13 @@
         <v>316</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>269</v>
+      <c r="D17" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>315</v>
@@ -1617,14 +1623,14 @@
       <c r="A18" t="s">
         <v>316</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
+      <c r="B18" t="s">
+        <v>268</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>315</v>
@@ -1635,13 +1641,13 @@
         <v>316</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>315</v>
@@ -1652,47 +1658,47 @@
         <v>316</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>316</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>315</v>
@@ -1703,13 +1709,13 @@
         <v>316</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>317</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>8</v>
+        <v>318</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>315</v>
@@ -1720,13 +1726,13 @@
         <v>316</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>315</v>
@@ -1737,13 +1743,13 @@
         <v>316</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>315</v>
@@ -1754,13 +1760,13 @@
         <v>316</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>315</v>
@@ -1771,13 +1777,13 @@
         <v>316</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>315</v>
@@ -1788,13 +1794,13 @@
         <v>316</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>315</v>
@@ -1805,13 +1811,13 @@
         <v>316</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>315</v>
@@ -1822,13 +1828,13 @@
         <v>316</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>315</v>
@@ -1839,13 +1845,13 @@
         <v>316</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>315</v>
@@ -1856,13 +1862,13 @@
         <v>316</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>315</v>
@@ -1873,13 +1879,13 @@
         <v>316</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>315</v>
@@ -1890,13 +1896,13 @@
         <v>316</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>315</v>
@@ -1907,13 +1913,13 @@
         <v>316</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>194</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>195</v>
+        <v>299</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>315</v>
@@ -1924,13 +1930,13 @@
         <v>316</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>315</v>
@@ -1941,13 +1947,13 @@
         <v>316</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>315</v>
@@ -1957,14 +1963,14 @@
       <c r="A38" t="s">
         <v>316</v>
       </c>
-      <c r="B38" t="s">
-        <v>278</v>
+      <c r="B38" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>279</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>315</v>
@@ -1974,14 +1980,14 @@
       <c r="A39" t="s">
         <v>316</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>283</v>
+      <c r="B39" t="s">
+        <v>278</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D39" t="s">
-        <v>282</v>
+      <c r="D39" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>315</v>
@@ -1992,13 +1998,13 @@
         <v>316</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>280</v>
+      <c r="D40" t="s">
+        <v>282</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>315</v>
@@ -2009,13 +2015,13 @@
         <v>316</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>315</v>
@@ -2026,13 +2032,13 @@
         <v>316</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>315</v>
@@ -2043,13 +2049,13 @@
         <v>316</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>315</v>
@@ -2060,13 +2066,13 @@
         <v>316</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D44" t="s">
-        <v>284</v>
+      <c r="D44" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>315</v>
@@ -2077,13 +2083,13 @@
         <v>316</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>236</v>
+      <c r="D45" t="s">
+        <v>284</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>315</v>
@@ -2094,13 +2100,13 @@
         <v>316</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>315</v>
@@ -2111,13 +2117,13 @@
         <v>316</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>315</v>
@@ -2128,13 +2134,13 @@
         <v>316</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>166</v>
+        <v>300</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>165</v>
+        <v>301</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>315</v>
@@ -2145,13 +2151,13 @@
         <v>316</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>315</v>
@@ -2162,13 +2168,13 @@
         <v>316</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>315</v>
@@ -2178,14 +2184,14 @@
       <c r="A51" t="s">
         <v>316</v>
       </c>
-      <c r="B51" t="s">
-        <v>276</v>
+      <c r="B51" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>315</v>
@@ -2195,14 +2201,14 @@
       <c r="A52" t="s">
         <v>316</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>57</v>
+      <c r="B52" t="s">
+        <v>276</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>315</v>
@@ -2213,13 +2219,13 @@
         <v>316</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>315</v>
@@ -2230,13 +2236,13 @@
         <v>316</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>315</v>
@@ -2247,13 +2253,13 @@
         <v>316</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>315</v>
@@ -2264,13 +2270,13 @@
         <v>316</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>312</v>
+        <v>192</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>313</v>
+        <v>193</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>315</v>
@@ -2281,13 +2287,13 @@
         <v>316</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>315</v>
@@ -2298,13 +2304,13 @@
         <v>316</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>315</v>
@@ -2315,13 +2321,13 @@
         <v>316</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>315</v>
@@ -2332,13 +2338,13 @@
         <v>316</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>315</v>
@@ -2349,13 +2355,13 @@
         <v>316</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>315</v>
@@ -2366,13 +2372,13 @@
         <v>316</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>126</v>
+        <v>302</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>315</v>
@@ -2383,13 +2389,13 @@
         <v>316</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>315</v>
@@ -2400,13 +2406,13 @@
         <v>316</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>315</v>
@@ -2417,13 +2423,13 @@
         <v>316</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>315</v>
@@ -2434,13 +2440,13 @@
         <v>316</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>292</v>
+        <v>101</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>293</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>315</v>
@@ -2451,13 +2457,13 @@
         <v>316</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>145</v>
+        <v>292</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>315</v>
@@ -2468,13 +2474,13 @@
         <v>316</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>315</v>
@@ -2485,13 +2491,13 @@
         <v>316</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>315</v>
@@ -2502,13 +2508,13 @@
         <v>316</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>315</v>
@@ -2519,13 +2525,13 @@
         <v>316</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>315</v>
@@ -2536,13 +2542,13 @@
         <v>316</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>315</v>
@@ -2553,13 +2559,13 @@
         <v>316</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>315</v>
@@ -2570,13 +2576,13 @@
         <v>316</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>315</v>
@@ -2587,13 +2593,13 @@
         <v>316</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>315</v>
@@ -2604,13 +2610,13 @@
         <v>316</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>315</v>
@@ -2621,13 +2627,13 @@
         <v>316</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>315</v>
@@ -2638,13 +2644,13 @@
         <v>316</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>315</v>
@@ -2661,7 +2667,7 @@
         <v>314</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>315</v>
@@ -2672,13 +2678,13 @@
         <v>316</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>315</v>
@@ -2689,13 +2695,13 @@
         <v>316</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>315</v>
@@ -2706,13 +2712,13 @@
         <v>316</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>315</v>
@@ -2723,13 +2729,13 @@
         <v>316</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>315</v>
@@ -2740,13 +2746,13 @@
         <v>316</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>315</v>
@@ -2757,13 +2763,13 @@
         <v>316</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>315</v>
@@ -2774,13 +2780,13 @@
         <v>316</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>315</v>
@@ -2791,13 +2797,13 @@
         <v>316</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>315</v>
@@ -2808,13 +2814,13 @@
         <v>316</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>315</v>
@@ -2825,13 +2831,13 @@
         <v>316</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>315</v>
@@ -2842,13 +2848,13 @@
         <v>316</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>315</v>
@@ -2859,13 +2865,13 @@
         <v>316</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>315</v>
@@ -2876,13 +2882,13 @@
         <v>316</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>315</v>
@@ -2893,13 +2899,13 @@
         <v>316</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>315</v>
@@ -2910,13 +2916,13 @@
         <v>316</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>315</v>
@@ -2927,13 +2933,13 @@
         <v>316</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>315</v>
@@ -2944,13 +2950,13 @@
         <v>316</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>315</v>
@@ -2961,13 +2967,13 @@
         <v>316</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>315</v>
@@ -2978,13 +2984,13 @@
         <v>316</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>315</v>
@@ -2995,13 +3001,13 @@
         <v>316</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>321</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>322</v>
+        <v>84</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>315</v>
@@ -3012,13 +3018,13 @@
         <v>316</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>203</v>
+        <v>321</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>204</v>
+        <v>322</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>315</v>
@@ -3029,13 +3035,13 @@
         <v>316</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>315</v>
@@ -3046,13 +3052,13 @@
         <v>316</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>315</v>
@@ -3063,13 +3069,13 @@
         <v>316</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>315</v>
@@ -3080,13 +3086,13 @@
         <v>316</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>315</v>
@@ -3097,13 +3103,13 @@
         <v>316</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>315</v>
@@ -3114,13 +3120,13 @@
         <v>316</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>315</v>
@@ -3130,14 +3136,14 @@
       <c r="A107" t="s">
         <v>316</v>
       </c>
-      <c r="B107" t="s">
-        <v>258</v>
+      <c r="B107" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>315</v>
@@ -3147,14 +3153,14 @@
       <c r="A108" t="s">
         <v>316</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>44</v>
+      <c r="B108" t="s">
+        <v>258</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>315</v>
@@ -3165,13 +3171,13 @@
         <v>316</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>315</v>
@@ -3182,13 +3188,13 @@
         <v>316</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>315</v>
@@ -3199,13 +3205,13 @@
         <v>316</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>289</v>
+        <v>163</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D111" t="s">
-        <v>288</v>
+      <c r="D111" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>315</v>
@@ -3216,13 +3222,13 @@
         <v>316</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D112" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>315</v>
@@ -3233,13 +3239,13 @@
         <v>316</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>161</v>
+        <v>286</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>162</v>
+      <c r="D113" t="s">
+        <v>287</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>315</v>
@@ -3250,13 +3256,13 @@
         <v>316</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>315</v>
@@ -3267,13 +3273,13 @@
         <v>316</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>315</v>
@@ -3284,13 +3290,13 @@
         <v>316</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>315</v>
@@ -3301,13 +3307,13 @@
         <v>316</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>315</v>
@@ -3318,13 +3324,13 @@
         <v>316</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>315</v>
@@ -3334,14 +3340,14 @@
       <c r="A119" t="s">
         <v>316</v>
       </c>
-      <c r="B119" t="s">
-        <v>272</v>
+      <c r="B119" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>273</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>315</v>
@@ -3352,13 +3358,13 @@
         <v>316</v>
       </c>
       <c r="B120" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>315</v>
@@ -3368,14 +3374,14 @@
       <c r="A121" t="s">
         <v>316</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>5</v>
+      <c r="B121" t="s">
+        <v>270</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>315</v>
@@ -3386,13 +3392,13 @@
         <v>316</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>306</v>
+        <v>5</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>307</v>
+        <v>6</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>315</v>
@@ -3403,13 +3409,13 @@
         <v>316</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>136</v>
+        <v>306</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>137</v>
+        <v>307</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>315</v>
@@ -3420,13 +3426,13 @@
         <v>316</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>315</v>
@@ -3437,13 +3443,13 @@
         <v>316</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>315</v>
@@ -3454,13 +3460,13 @@
         <v>316</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>315</v>
@@ -3471,13 +3477,13 @@
         <v>316</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>315</v>
@@ -3488,13 +3494,13 @@
         <v>316</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>315</v>
@@ -3505,13 +3511,13 @@
         <v>316</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>315</v>
@@ -3522,13 +3528,13 @@
         <v>316</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>315</v>
@@ -3538,14 +3544,14 @@
       <c r="A131" t="s">
         <v>316</v>
       </c>
-      <c r="B131" t="s">
-        <v>254</v>
+      <c r="B131" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>315</v>
@@ -3555,14 +3561,14 @@
       <c r="A132" t="s">
         <v>316</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>217</v>
+      <c r="B132" t="s">
+        <v>254</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>315</v>
@@ -3573,13 +3579,13 @@
         <v>316</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>52</v>
+        <v>218</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>315</v>
@@ -3590,13 +3596,13 @@
         <v>316</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>315</v>
@@ -3607,13 +3613,13 @@
         <v>316</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>315</v>
@@ -3624,13 +3630,13 @@
         <v>316</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>315</v>
@@ -3641,13 +3647,13 @@
         <v>316</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>315</v>
@@ -3658,13 +3664,13 @@
         <v>316</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>315</v>
@@ -3675,13 +3681,13 @@
         <v>316</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>315</v>
@@ -3692,13 +3698,13 @@
         <v>316</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>294</v>
+        <v>32</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>295</v>
+        <v>34</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>315</v>
@@ -3709,13 +3715,13 @@
         <v>316</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>315</v>
@@ -3726,13 +3732,13 @@
         <v>316</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>315</v>
@@ -3743,13 +3749,13 @@
         <v>316</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>315</v>
@@ -3760,13 +3766,13 @@
         <v>316</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>105</v>
+        <v>310</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>315</v>
@@ -3777,13 +3783,13 @@
         <v>316</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>315</v>
@@ -3793,14 +3799,14 @@
       <c r="A146" t="s">
         <v>316</v>
       </c>
-      <c r="B146" t="s">
-        <v>274</v>
+      <c r="B146" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>315</v>
@@ -3810,14 +3816,14 @@
       <c r="A147" t="s">
         <v>316</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>142</v>
+      <c r="B147" t="s">
+        <v>274</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>143</v>
+        <v>275</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>315</v>
@@ -3834,7 +3840,7 @@
         <v>314</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>315</v>
@@ -3845,13 +3851,13 @@
         <v>316</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>315</v>
@@ -3862,13 +3868,13 @@
         <v>316</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>296</v>
+        <v>138</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>297</v>
+        <v>139</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>315</v>
@@ -3879,13 +3885,13 @@
         <v>316</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>115</v>
+        <v>296</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>116</v>
+        <v>297</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>315</v>
@@ -3896,13 +3902,13 @@
         <v>316</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>308</v>
+        <v>115</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>309</v>
+        <v>116</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>315</v>
@@ -3913,13 +3919,13 @@
         <v>316</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>223</v>
+        <v>308</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>315</v>
@@ -3930,13 +3936,13 @@
         <v>316</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>315</v>
@@ -3947,13 +3953,13 @@
         <v>316</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>315</v>
@@ -3964,13 +3970,13 @@
         <v>316</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>315</v>
@@ -3981,13 +3987,13 @@
         <v>316</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>315</v>
@@ -3998,13 +4004,13 @@
         <v>316</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>315</v>
@@ -4015,13 +4021,13 @@
         <v>316</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>315</v>
@@ -4032,13 +4038,13 @@
         <v>316</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>315</v>
@@ -4049,15 +4055,32 @@
         <v>316</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>316</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E162" s="2" t="s">
         <v>315</v>
       </c>
     </row>

--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\github\kamusjsc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5012EA4-C401-4694-AD6B-79944A87CAA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290B33FF-674D-414D-9B1D-C38C2D44FBA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="329">
   <si>
     <t>Singkatan</t>
   </si>
@@ -1003,6 +1003,18 @@
   </si>
   <si>
     <t>Bimbingan Teknis</t>
+  </si>
+  <si>
+    <t>Master Data Management</t>
+  </si>
+  <si>
+    <t>MDM</t>
+  </si>
+  <si>
+    <t>Komite Pengendalian Covid-19 dan Pemulihan Ekonomi Nasional</t>
+  </si>
+  <si>
+    <t>KPC PEN</t>
   </si>
 </sst>
 </file>
@@ -1324,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2780,13 +2792,13 @@
         <v>316</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>12</v>
+        <v>328</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>4</v>
+        <v>327</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>315</v>
@@ -2797,13 +2809,13 @@
         <v>316</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>315</v>
@@ -2814,13 +2826,13 @@
         <v>316</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>121</v>
+        <v>326</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>325</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>315</v>
@@ -2831,13 +2843,13 @@
         <v>316</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>315</v>
@@ -2848,13 +2860,13 @@
         <v>316</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>315</v>
@@ -2865,13 +2877,13 @@
         <v>316</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>315</v>
@@ -2882,13 +2894,13 @@
         <v>316</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>315</v>
@@ -2899,13 +2911,13 @@
         <v>316</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>315</v>
@@ -2916,13 +2928,13 @@
         <v>316</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>315</v>
@@ -2933,13 +2945,13 @@
         <v>316</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>216</v>
+        <v>53</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>315</v>
@@ -2950,13 +2962,13 @@
         <v>316</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>27</v>
+        <v>229</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>315</v>
@@ -2967,13 +2979,13 @@
         <v>316</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>55</v>
+        <v>216</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>315</v>
@@ -2984,13 +2996,13 @@
         <v>316</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>315</v>
@@ -3001,13 +3013,13 @@
         <v>316</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>315</v>
@@ -3018,13 +3030,13 @@
         <v>316</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>321</v>
+        <v>219</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>322</v>
+        <v>220</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>315</v>
@@ -3035,13 +3047,13 @@
         <v>316</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>315</v>
@@ -3052,13 +3064,13 @@
         <v>316</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>201</v>
+        <v>321</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>315</v>
@@ -3069,13 +3081,13 @@
         <v>316</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>315</v>
@@ -3086,13 +3098,13 @@
         <v>316</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>315</v>
@@ -3103,13 +3115,13 @@
         <v>316</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>315</v>
@@ -3120,13 +3132,13 @@
         <v>316</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>315</v>
@@ -3137,13 +3149,13 @@
         <v>316</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>315</v>
@@ -3153,14 +3165,14 @@
       <c r="A108" t="s">
         <v>316</v>
       </c>
-      <c r="B108" t="s">
-        <v>258</v>
+      <c r="B108" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>259</v>
+        <v>179</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>315</v>
@@ -3171,13 +3183,13 @@
         <v>316</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>315</v>
@@ -3187,14 +3199,14 @@
       <c r="A110" t="s">
         <v>316</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>149</v>
+      <c r="B110" t="s">
+        <v>258</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>315</v>
@@ -3205,13 +3217,13 @@
         <v>316</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>315</v>
@@ -3222,13 +3234,13 @@
         <v>316</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>289</v>
+        <v>149</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D112" t="s">
-        <v>288</v>
+      <c r="D112" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>315</v>
@@ -3239,13 +3251,13 @@
         <v>316</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>286</v>
+        <v>163</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D113" t="s">
-        <v>287</v>
+      <c r="D113" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>315</v>
@@ -3256,13 +3268,13 @@
         <v>316</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>161</v>
+        <v>289</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>162</v>
+      <c r="D114" t="s">
+        <v>288</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>315</v>
@@ -3273,13 +3285,13 @@
         <v>316</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>156</v>
+      <c r="D115" t="s">
+        <v>287</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>315</v>
@@ -3290,13 +3302,13 @@
         <v>316</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>315</v>
@@ -3307,13 +3319,13 @@
         <v>316</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>315</v>
@@ -3324,13 +3336,13 @@
         <v>316</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>315</v>
@@ -3341,13 +3353,13 @@
         <v>316</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>315</v>
@@ -3357,14 +3369,14 @@
       <c r="A120" t="s">
         <v>316</v>
       </c>
-      <c r="B120" t="s">
-        <v>272</v>
+      <c r="B120" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>273</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>315</v>
@@ -3374,14 +3386,14 @@
       <c r="A121" t="s">
         <v>316</v>
       </c>
-      <c r="B121" t="s">
-        <v>270</v>
+      <c r="B121" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>271</v>
+        <v>158</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>315</v>
@@ -3391,14 +3403,14 @@
       <c r="A122" t="s">
         <v>316</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>5</v>
+      <c r="B122" t="s">
+        <v>272</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>315</v>
@@ -3408,14 +3420,14 @@
       <c r="A123" t="s">
         <v>316</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>306</v>
+      <c r="B123" t="s">
+        <v>270</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>315</v>
@@ -3426,13 +3438,13 @@
         <v>316</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>315</v>
@@ -3443,13 +3455,13 @@
         <v>316</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>29</v>
+        <v>306</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>31</v>
+        <v>307</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>315</v>
@@ -3460,13 +3472,13 @@
         <v>316</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>315</v>
@@ -3477,13 +3489,13 @@
         <v>316</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>315</v>
@@ -3494,13 +3506,13 @@
         <v>316</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>315</v>
@@ -3511,13 +3523,13 @@
         <v>316</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>315</v>
@@ -3528,13 +3540,13 @@
         <v>316</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>315</v>
@@ -3545,13 +3557,13 @@
         <v>316</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>315</v>
@@ -3561,14 +3573,14 @@
       <c r="A132" t="s">
         <v>316</v>
       </c>
-      <c r="B132" t="s">
-        <v>254</v>
+      <c r="B132" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>315</v>
@@ -3579,13 +3591,13 @@
         <v>316</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>315</v>
@@ -3595,14 +3607,14 @@
       <c r="A134" t="s">
         <v>316</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>51</v>
+      <c r="B134" t="s">
+        <v>254</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>315</v>
@@ -3613,13 +3625,13 @@
         <v>316</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>315</v>
@@ -3630,13 +3642,13 @@
         <v>316</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>315</v>
@@ -3647,13 +3659,13 @@
         <v>316</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>315</v>
@@ -3664,13 +3676,13 @@
         <v>316</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>315</v>
@@ -3681,13 +3693,13 @@
         <v>316</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>315</v>
@@ -3698,13 +3710,13 @@
         <v>316</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>315</v>
@@ -3715,13 +3727,13 @@
         <v>316</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>315</v>
@@ -3732,13 +3744,13 @@
         <v>316</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>315</v>
@@ -3749,13 +3761,13 @@
         <v>316</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>315</v>
@@ -3766,13 +3778,13 @@
         <v>316</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>311</v>
+        <v>243</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>315</v>
@@ -3783,13 +3795,13 @@
         <v>316</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>106</v>
+        <v>305</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>315</v>
@@ -3800,13 +3812,13 @@
         <v>316</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>39</v>
+        <v>310</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>40</v>
+        <v>311</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>315</v>
@@ -3816,14 +3828,14 @@
       <c r="A147" t="s">
         <v>316</v>
       </c>
-      <c r="B147" t="s">
-        <v>274</v>
+      <c r="B147" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>315</v>
@@ -3834,13 +3846,13 @@
         <v>316</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>315</v>
@@ -3850,14 +3862,14 @@
       <c r="A149" t="s">
         <v>316</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>142</v>
+      <c r="B149" t="s">
+        <v>274</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>315</v>
@@ -3868,13 +3880,13 @@
         <v>316</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>315</v>
@@ -3885,13 +3897,13 @@
         <v>316</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>297</v>
+        <v>200</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>315</v>
@@ -3902,13 +3914,13 @@
         <v>316</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>315</v>
@@ -3919,13 +3931,13 @@
         <v>316</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>315</v>
@@ -3936,13 +3948,13 @@
         <v>316</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>315</v>
@@ -3953,13 +3965,13 @@
         <v>316</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>131</v>
+        <v>308</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>315</v>
@@ -3970,13 +3982,13 @@
         <v>316</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>315</v>
@@ -3987,13 +3999,13 @@
         <v>316</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>315</v>
@@ -4004,13 +4016,13 @@
         <v>316</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>315</v>
@@ -4021,13 +4033,13 @@
         <v>316</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>315</v>
@@ -4038,13 +4050,13 @@
         <v>316</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>315</v>
@@ -4055,13 +4067,13 @@
         <v>316</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>315</v>
@@ -4072,15 +4084,49 @@
         <v>316</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>316</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>316</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="C164" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E164" s="2" t="s">
         <v>315</v>
       </c>
     </row>
